--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -592,13 +592,7 @@
     <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -1042,6 +1036,9 @@
   </si>
   <si>
     <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、独自の構造を提供する必要がある。</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1413,7 +1410,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2986,13 +2983,11 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3028,25 +3023,25 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3068,13 +3063,13 @@
         <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3103,10 +3098,10 @@
         <v>114</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3124,7 +3119,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>90</v>
@@ -3139,28 +3134,28 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3179,19 +3174,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3240,7 +3235,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3255,28 +3250,28 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3295,19 +3290,19 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3356,7 +3351,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3371,28 +3366,28 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3411,19 +3406,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3472,7 +3467,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3487,28 +3482,28 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3527,19 +3522,19 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3588,7 +3583,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3606,25 +3601,25 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3643,19 +3638,19 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3704,7 +3699,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3719,28 +3714,28 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3759,19 +3754,19 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="O21" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -3820,7 +3815,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3835,24 +3830,24 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AN21" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3875,19 +3870,19 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -3936,7 +3931,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3954,10 +3949,10 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -3965,14 +3960,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3991,19 +3986,19 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4052,7 +4047,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4070,10 +4065,10 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4081,10 +4076,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4107,16 +4102,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4166,7 +4161,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4187,7 +4182,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4195,14 +4190,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4221,19 +4216,19 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4282,7 +4277,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4300,10 +4295,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4311,10 +4306,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4337,13 +4332,13 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4394,7 +4389,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4415,7 +4410,7 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4423,10 +4418,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4455,7 +4450,7 @@
         <v>137</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>139</v>
@@ -4508,7 +4503,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4529,7 +4524,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4537,14 +4532,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4566,10 +4561,10 @@
         <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>139</v>
@@ -4624,7 +4619,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4653,10 +4648,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4679,19 +4674,19 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4740,7 +4735,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4761,7 +4756,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -4769,10 +4764,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4795,13 +4790,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4852,7 +4847,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>90</v>
@@ -4873,7 +4868,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -4881,14 +4876,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4907,17 +4902,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -4966,7 +4961,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4984,10 +4979,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -4995,10 +4990,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5024,13 +5019,13 @@
         <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5056,14 +5051,14 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>185</v>
+        <v>326</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5080,7 +5075,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5098,10 +5093,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5109,10 +5104,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5135,19 +5130,19 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5196,7 +5191,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5214,10 +5209,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
